--- a/sample.xlsx
+++ b/sample.xlsx
@@ -329,7 +329,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C3:L12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
@@ -337,7 +337,121 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>I1</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>J1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>F2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>I2</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>J2</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>C3</t>
@@ -378,18 +492,18 @@
           <t>J3</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>K3</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>L3</t>
-        </is>
-      </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>C4</t>
@@ -430,18 +544,18 @@
           <t>J4</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>K4</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>L4</t>
-        </is>
-      </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>B5</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>C5</t>
@@ -482,18 +596,18 @@
           <t>J5</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>K5</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>L5</t>
-        </is>
-      </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A6</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>C6</t>
@@ -534,18 +648,18 @@
           <t>J6</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>K6</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>L6</t>
-        </is>
-      </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>C7</t>
@@ -586,18 +700,18 @@
           <t>J7</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>K7</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>L7</t>
-        </is>
-      </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A8</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B8</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>C8</t>
@@ -638,18 +752,18 @@
           <t>J8</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>K8</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>L8</t>
-        </is>
-      </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A9</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B9</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>C9</t>
@@ -690,18 +804,18 @@
           <t>J9</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>K9</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>L9</t>
-        </is>
-      </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A10</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>B10</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>C10</t>
@@ -740,120 +854,6 @@
       <c r="J10" t="inlineStr">
         <is>
           <t>J10</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>K10</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>L10</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>C11</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>D11</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>E11</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>F11</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>G11</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>H11</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>I11</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>J11</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>K11</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>L11</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>C12</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>D12</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>E12</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>F12</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>G12</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>H12</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>I12</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>J12</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>K12</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>L12</t>
         </is>
       </c>
     </row>
